--- a/data/thermal/2024_nyca_nonthermal.xlsx
+++ b/data/thermal/2024_nyca_nonthermal.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\OneMet\generator_matching\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835BD082-144F-48C5-BB91-05AF5FD64E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nuclear" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Hydro" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Import" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Wind" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="UPV" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Storage" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Others" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Nuclear" sheetId="1" r:id="rId1"/>
+    <sheet name="Hydro" sheetId="2" r:id="rId2"/>
+    <sheet name="Import" sheetId="3" r:id="rId3"/>
+    <sheet name="Wind" sheetId="4" r:id="rId4"/>
+    <sheet name="UPV" sheetId="5" r:id="rId5"/>
+    <sheet name="Storage" sheetId="6" r:id="rId6"/>
+    <sheet name="Others" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,540 +31,571 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="173">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacity (MW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuel Type Primary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023 Net Energy (GWh)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_gen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gen_bus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R. E. Ginna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NYISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nine Mile Point 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nine Mile Point 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James A. FitzPatrick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moses Niagara (Fleet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Lawrence - FDR (Fleet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro_B_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NYGRID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro_C_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro_C_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro_D_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro_E_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro_E_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro_F_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro_G_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_NE_CSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_NE_NNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_NE_ZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_NE_ZG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_IESO_ZD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IESO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_IESO_ZA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_IESO_ZA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_PJM_ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PJM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_PJM_ZC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_PJM_ZG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_PJM_NEPTUNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_PJM_HTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_PJM_VFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_HQ_CEDARS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_HQ_NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_HQ_CHPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arkwright Summit Wind Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arkwright Summit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ball Hill Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bliss Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noble Bliss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cassadaga Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cassadaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erie Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel Winds II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel Winds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western NY Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wethersfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baron Winds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baron Winds I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canandaigua Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch Hill/Cohocton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Point Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fenner Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fenner Wind Power Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Sheldon Wind Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Sheldon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Howard Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Howard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marsh Hill Wind Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marsh Hill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orangeville Wind Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orangeville Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wethersfield Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noble Wethersfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altona Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noble Altona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chateaugay Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noble Chateaugay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinton Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noble Clinton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellenburg Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noble Ellenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jericho Rise Wind Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jericho Rise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marble River Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marble River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlueStone Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bluestone Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copenhagen Wind Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copenhagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardscrabble Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardscrabble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madison Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madison Windpower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maple Ridge Wind 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maple Ridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maple Ridge Wind 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maple Ridge (Lowville)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munnsville Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munnsville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number Three Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number Three Wind Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roaring Brook Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puckett Solar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janis Solar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branscomb Solar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darby Solar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regan Solar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grissom Solar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stillwater Solar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pattersonville Solar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albany County Solar 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albany County Solar 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long Island Solar Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calverton Solar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewiston PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilboa 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilboa 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilboa 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilboa 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orangeville ESR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KCE NY 6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="185">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>PTID</t>
+  </si>
+  <si>
+    <t>Capacity (MW)</t>
+  </si>
+  <si>
+    <t>Unit Type</t>
+  </si>
+  <si>
+    <t>Fuel Type Primary</t>
+  </si>
+  <si>
+    <t>2023 Net Energy (GWh)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>min_gen</t>
+  </si>
+  <si>
+    <t>gen_bus</t>
+  </si>
+  <si>
+    <t>R. E. Ginna</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>NYISO</t>
+  </si>
+  <si>
+    <t>Nine Mile Point 1</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Nine Mile Point 2</t>
+  </si>
+  <si>
+    <t>James A. FitzPatrick</t>
+  </si>
+  <si>
+    <t>Moses Niagara (Fleet)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>HY</t>
+  </si>
+  <si>
+    <t>WAT</t>
+  </si>
+  <si>
+    <t>St Lawrence - FDR (Fleet)</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Hydro_B_1</t>
+  </si>
+  <si>
+    <t>NYGRID</t>
+  </si>
+  <si>
+    <t>Hydro_C_1</t>
+  </si>
+  <si>
+    <t>Hydro_C_2</t>
+  </si>
+  <si>
+    <t>Hydro_D_1</t>
+  </si>
+  <si>
+    <t>Hydro_E_1</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Hydro_E_2</t>
+  </si>
+  <si>
+    <t>Hydro_F_1</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Hydro_G_1</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Import_NE_CSC</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Import_NE_NNC</t>
+  </si>
+  <si>
+    <t>Import_NE_ZF</t>
+  </si>
+  <si>
+    <t>Import_NE_ZG</t>
+  </si>
+  <si>
+    <t>Import_IESO_ZD</t>
+  </si>
+  <si>
+    <t>IESO</t>
+  </si>
+  <si>
+    <t>Import_IESO_ZA1</t>
+  </si>
+  <si>
+    <t>Import_IESO_ZA2</t>
+  </si>
+  <si>
+    <t>Import_PJM_ZA</t>
+  </si>
+  <si>
+    <t>PJM</t>
+  </si>
+  <si>
+    <t>Import_PJM_ZC</t>
+  </si>
+  <si>
+    <t>Import_PJM_ZG</t>
+  </si>
+  <si>
+    <t>Import_PJM_NEPTUNE</t>
+  </si>
+  <si>
+    <t>Import_PJM_HTP</t>
+  </si>
+  <si>
+    <t>Import_PJM_VFT</t>
+  </si>
+  <si>
+    <t>Import_HQ_CEDARS</t>
+  </si>
+  <si>
+    <t>Import_HQ_NY</t>
+  </si>
+  <si>
+    <t>Import_HQ_CHPE</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Arkwright Summit Wind Farm</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>WND</t>
+  </si>
+  <si>
+    <t>Arkwright Summit</t>
+  </si>
+  <si>
+    <t>Ball Hill Wind</t>
+  </si>
+  <si>
+    <t>Bliss Wind Power</t>
+  </si>
+  <si>
+    <t>Noble Bliss</t>
+  </si>
+  <si>
+    <t>Cassadaga Wind</t>
+  </si>
+  <si>
+    <t>Cassadaga</t>
+  </si>
+  <si>
+    <t>Erie Wind</t>
+  </si>
+  <si>
+    <t>Steel Winds II</t>
+  </si>
+  <si>
+    <t>Steel Wind</t>
+  </si>
+  <si>
+    <t>Steel Winds</t>
+  </si>
+  <si>
+    <t>Western NY Wind Power</t>
+  </si>
+  <si>
+    <t>Wethersfield</t>
+  </si>
+  <si>
+    <t>Baron Winds</t>
+  </si>
+  <si>
+    <t>Baron Winds I</t>
+  </si>
+  <si>
+    <t>Canandaigua Wind Power</t>
+  </si>
+  <si>
+    <t>Dutch Hill/Cohocton</t>
+  </si>
+  <si>
+    <t>Eight Point Wind</t>
+  </si>
+  <si>
+    <t>Fenner Wind Power</t>
+  </si>
+  <si>
+    <t>Fenner Wind Power Project</t>
+  </si>
+  <si>
+    <t>High Sheldon Wind Farm</t>
+  </si>
+  <si>
+    <t>High Sheldon</t>
+  </si>
+  <si>
+    <t>Howard Wind</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Marsh Hill Wind Farm</t>
+  </si>
+  <si>
+    <t>Marsh Hill</t>
+  </si>
+  <si>
+    <t>Orangeville Wind Farm</t>
+  </si>
+  <si>
+    <t>Orangeville Wind</t>
+  </si>
+  <si>
+    <t>Wethersfield Wind Power</t>
+  </si>
+  <si>
+    <t>Noble Wethersfield</t>
+  </si>
+  <si>
+    <t>Altona Wind Power</t>
+  </si>
+  <si>
+    <t>Noble Altona</t>
+  </si>
+  <si>
+    <t>Chateaugay Wind Power</t>
+  </si>
+  <si>
+    <t>Noble Chateaugay</t>
+  </si>
+  <si>
+    <t>Clinton Wind Power</t>
+  </si>
+  <si>
+    <t>Noble Clinton</t>
+  </si>
+  <si>
+    <t>Ellenburg Wind Power</t>
+  </si>
+  <si>
+    <t>Noble Ellenburg</t>
+  </si>
+  <si>
+    <t>Jericho Rise Wind Farm</t>
+  </si>
+  <si>
+    <t>Jericho Rise</t>
+  </si>
+  <si>
+    <t>Marble River Wind</t>
+  </si>
+  <si>
+    <t>Marble River</t>
+  </si>
+  <si>
+    <t>BlueStone Wind</t>
+  </si>
+  <si>
+    <t>Bluestone Wind</t>
+  </si>
+  <si>
+    <t>Copenhagen Wind Farm</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Hardscrabble Wind</t>
+  </si>
+  <si>
+    <t>Hardscrabble</t>
+  </si>
+  <si>
+    <t>Madison Wind Power</t>
+  </si>
+  <si>
+    <t>Madison Windpower</t>
+  </si>
+  <si>
+    <t>Maple Ridge Wind 1</t>
+  </si>
+  <si>
+    <t>Maple Ridge</t>
+  </si>
+  <si>
+    <t>Maple Ridge Wind 2</t>
+  </si>
+  <si>
+    <t>Maple Ridge (Lowville)</t>
+  </si>
+  <si>
+    <t>Munnsville Wind Power</t>
+  </si>
+  <si>
+    <t>Munnsville</t>
+  </si>
+  <si>
+    <t>Number Three Wind Power</t>
+  </si>
+  <si>
+    <t>Number Three Wind Farm</t>
+  </si>
+  <si>
+    <t>Roaring Brook Wind</t>
+  </si>
+  <si>
+    <t>Puckett Solar</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>SUN</t>
+  </si>
+  <si>
+    <t>Janis Solar</t>
+  </si>
+  <si>
+    <t>Branscomb Solar</t>
+  </si>
+  <si>
+    <t>Darby Solar</t>
+  </si>
+  <si>
+    <t>Regan Solar</t>
+  </si>
+  <si>
+    <t>Grissom Solar</t>
+  </si>
+  <si>
+    <t>Stillwater Solar</t>
+  </si>
+  <si>
+    <t>Pattersonville Solar</t>
+  </si>
+  <si>
+    <t>Albany County Solar 1</t>
+  </si>
+  <si>
+    <t>Albany County Solar 2</t>
+  </si>
+  <si>
+    <t>Long Island Solar Farm</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Calverton Solar</t>
+  </si>
+  <si>
+    <t>Lewiston PS</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Gilboa 1</t>
+  </si>
+  <si>
+    <t>Gilboa 2</t>
+  </si>
+  <si>
+    <t>Gilboa 3</t>
+  </si>
+  <si>
+    <t>Gilboa 4</t>
+  </si>
+  <si>
+    <t>Orangeville ESR</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>KCE NY 6</t>
   </si>
   <si>
     <t xml:space="preserve">East Pulaski ESR </t>
   </si>
   <si>
-    <t xml:space="preserve">North Country ESR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beacon LESR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KCE NY 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pomona ESR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Hampton Battery Storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montauk Battery Storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_A_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_A_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_B_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_C_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_C_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_C_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_C_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_D_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_E_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_E_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_F_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_F_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_F_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_F_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_G_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_H_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_K_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_K_2</t>
+    <t>North Country ESR</t>
+  </si>
+  <si>
+    <t>Beacon LESR</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>KCE NY 1</t>
+  </si>
+  <si>
+    <t>Pomona ESR</t>
+  </si>
+  <si>
+    <t>East Hampton Battery Storage</t>
+  </si>
+  <si>
+    <t>Montauk Battery Storage</t>
+  </si>
+  <si>
+    <t>Other_A_1</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Other_A_2</t>
+  </si>
+  <si>
+    <t>Other_B_1</t>
+  </si>
+  <si>
+    <t>Other_C_1</t>
+  </si>
+  <si>
+    <t>Other_C_2</t>
+  </si>
+  <si>
+    <t>Other_C_3</t>
+  </si>
+  <si>
+    <t>Other_C_4</t>
+  </si>
+  <si>
+    <t>Other_D_1</t>
+  </si>
+  <si>
+    <t>Other_E_1</t>
+  </si>
+  <si>
+    <t>Other_E_2</t>
+  </si>
+  <si>
+    <t>Other_F_1</t>
+  </si>
+  <si>
+    <t>Other_F_2</t>
+  </si>
+  <si>
+    <t>Other_F_3</t>
+  </si>
+  <si>
+    <t>Other_F_4</t>
+  </si>
+  <si>
+    <t>Other_G_1</t>
+  </si>
+  <si>
+    <t>Other_H_1</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Other_K_1</t>
+  </si>
+  <si>
+    <t>Other_K_2</t>
+  </si>
+  <si>
+    <t>Long Island Solar Farm, LLC</t>
+  </si>
+  <si>
+    <t>NY8 - Puckett Solar</t>
+  </si>
+  <si>
+    <t>NY8 - Janis Solar</t>
+  </si>
+  <si>
+    <t>NY8 - Regan Solar</t>
+  </si>
+  <si>
+    <t>NY8 - Darby Solar</t>
+  </si>
+  <si>
+    <t>NY8-Branscomb Solar</t>
+  </si>
+  <si>
+    <t>NY8 - Grissom Solar</t>
+  </si>
+  <si>
+    <t>Riverhead Solar Farm</t>
+  </si>
+  <si>
+    <t>POINT (-73.6960985 42.9093027)</t>
+  </si>
+  <si>
+    <t>POINT (-74.117419 42.857609)</t>
+  </si>
+  <si>
+    <t>POINT (-73.8017085 42.4659365)</t>
+  </si>
+  <si>
+    <t>POINT (-73.7966561 42.4777168)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="mmm\-yy"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -568,28 +604,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11.5"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
@@ -617,161 +638,97 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
-    <cellStyle name="Normal 3" xfId="21"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -833,6 +790,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -891,28 +849,356 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,17 +1230,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="8">
         <v>23603</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="9">
         <v>582</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -963,30 +1249,30 @@
       <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="n">
-        <v>4644.9</v>
+      <c r="G2" s="9">
+        <v>4644.8999999999996</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="9" t="n">
+      <c r="I2" s="9">
         <v>436.5</v>
       </c>
-      <c r="J2" s="10" t="n">
+      <c r="J2" s="10">
         <v>53</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="8">
         <v>23575</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>630.5</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -995,30 +1281,30 @@
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="n">
-        <v>4666.6</v>
+      <c r="G3" s="9">
+        <v>4666.6000000000004</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="I3" s="9">
         <v>472.875</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="10">
         <v>50</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="8">
         <v>23744</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="9">
         <v>1310</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1027,30 +1313,30 @@
       <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="9">
         <v>10837.1</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="9" t="n">
+      <c r="I4" s="9">
         <v>934.95</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="10">
         <v>50</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="8">
         <v>23598</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="9">
         <v>858.9</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1059,47 +1345,39 @@
       <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="9">
         <v>7373.1</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="9" t="n">
-        <v>644.175</v>
-      </c>
-      <c r="J5" s="10" t="n">
+      <c r="I5" s="9">
+        <v>644.17499999999995</v>
+      </c>
+      <c r="J5" s="10">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.56"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,17 +1409,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="8">
         <v>23760</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="9">
         <v>2460</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -1150,30 +1428,30 @@
       <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="9">
         <v>15767.3</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10" t="n">
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
         <v>55</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="8">
         <v>23600</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>856</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1182,20 +1460,20 @@
       <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="9">
         <v>7138.6</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="n">
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -1203,7 +1481,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="10">
         <v>63.8</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1216,14 +1494,14 @@
       <c r="H4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="n">
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
         <v>53</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
@@ -1231,8 +1509,8 @@
         <v>16</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="10" t="n">
-        <v>71.4</v>
+      <c r="D5" s="10">
+        <v>71.400000000000006</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>22</v>
@@ -1244,14 +1522,14 @@
       <c r="H5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="n">
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
         <v>50</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
@@ -1259,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="10">
         <v>38</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1272,14 +1550,14 @@
       <c r="H6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10" t="n">
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
         <v>68</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
@@ -1287,7 +1565,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>58.8</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1300,14 +1578,14 @@
       <c r="H7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="n">
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -1315,7 +1593,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="10">
         <v>28.6</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1328,14 +1606,14 @@
       <c r="H8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="n">
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
         <v>45</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>33</v>
       </c>
@@ -1343,7 +1621,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="10">
         <v>347.7</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1356,14 +1634,14 @@
       <c r="H9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="n">
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
         <v>47</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
@@ -1371,8 +1649,8 @@
         <v>35</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="10" t="n">
-        <v>269.6</v>
+      <c r="D10" s="10">
+        <v>269.60000000000002</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>22</v>
@@ -1384,14 +1662,14 @@
       <c r="H10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="n">
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -1399,7 +1677,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="10">
         <v>75.8</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -1412,41 +1690,33 @@
       <c r="H11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10" t="n">
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
@@ -1486,7 +1756,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="10">
         <v>330</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -1499,14 +1769,14 @@
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10" t="n">
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>41</v>
       </c>
@@ -1514,7 +1784,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="10">
         <v>200</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -1527,14 +1797,14 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="10" t="n">
+      <c r="I3" s="10">
         <v>-200</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="10">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
@@ -1542,7 +1812,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="10">
         <v>800</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -1555,14 +1825,14 @@
       <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="10" t="n">
+      <c r="I4" s="10">
         <v>-800</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="10">
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>43</v>
       </c>
@@ -1570,7 +1840,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>600</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -1583,14 +1853,14 @@
       <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="10">
         <v>-800</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="10">
         <v>35</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>44</v>
       </c>
@@ -1598,7 +1868,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="10">
         <v>300</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -1611,14 +1881,14 @@
       <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="10" t="n">
+      <c r="I6" s="10">
         <v>-300</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1626,7 +1896,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>825</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -1639,14 +1909,14 @@
       <c r="H7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="10" t="n">
+      <c r="I7" s="10">
         <v>-725</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="10">
         <v>102</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>47</v>
       </c>
@@ -1654,7 +1924,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="10">
         <v>825</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -1667,14 +1937,14 @@
       <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="10" t="n">
+      <c r="I8" s="10">
         <v>-725</v>
       </c>
-      <c r="J8" s="10" t="n">
+      <c r="J8" s="10">
         <v>103</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>48</v>
       </c>
@@ -1682,7 +1952,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="10">
         <v>550</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -1695,14 +1965,14 @@
       <c r="H9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="10" t="n">
+      <c r="I9" s="10">
         <v>-550</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="10">
         <v>134</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>50</v>
       </c>
@@ -1710,7 +1980,7 @@
         <v>49</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="10">
         <v>900</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -1723,14 +1993,14 @@
       <c r="H10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="10" t="n">
+      <c r="I10" s="10">
         <v>-500</v>
       </c>
-      <c r="J10" s="10" t="n">
+      <c r="J10" s="10">
         <v>138</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>51</v>
       </c>
@@ -1738,7 +2008,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="10">
         <v>1045</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -1751,14 +2021,14 @@
       <c r="H11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="10" t="n">
+      <c r="I11" s="10">
         <v>-1000</v>
       </c>
-      <c r="J11" s="10" t="n">
+      <c r="J11" s="10">
         <v>124</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>52</v>
       </c>
@@ -1766,7 +2036,7 @@
         <v>49</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="10">
         <v>660</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -1779,14 +2049,14 @@
       <c r="H12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="n">
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
         <v>125</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>53</v>
       </c>
@@ -1794,7 +2064,7 @@
         <v>49</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="10">
         <v>660</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -1807,14 +2077,14 @@
       <c r="H13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10" t="n">
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
         <v>125</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>54</v>
       </c>
@@ -1822,7 +2092,7 @@
         <v>49</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="10">
         <v>315</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -1835,14 +2105,14 @@
       <c r="H14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="10" t="n">
+      <c r="I14" s="10">
         <v>-315</v>
       </c>
-      <c r="J14" s="10" t="n">
+      <c r="J14" s="10">
         <v>125</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>55</v>
       </c>
@@ -1850,7 +2120,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="10">
         <v>199</v>
       </c>
       <c r="E15" s="10" t="s">
@@ -1863,14 +2133,14 @@
       <c r="H15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10" t="n">
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>56</v>
       </c>
@@ -1878,7 +2148,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="10">
         <v>1500</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -1891,22 +2161,22 @@
       <c r="H16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10" t="n">
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="10">
         <v>1250</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -1919,55 +2189,34 @@
       <c r="H17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10" t="n">
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.78"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1999,18 +2248,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="8">
         <v>323751</v>
       </c>
-      <c r="D2" s="9" t="n">
-        <v>78.4</v>
+      <c r="D2" s="9">
+        <v>78.400000000000006</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>60</v>
@@ -2018,30 +2267,30 @@
       <c r="F2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="9">
         <v>224.7</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10" t="n">
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
         <v>58</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="8">
         <v>323825</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>100</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -2050,30 +2299,30 @@
       <c r="F3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="9">
         <v>55.4</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="n">
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
         <v>58</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="8">
         <v>323608</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="9">
         <v>100.5</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2082,30 +2331,30 @@
       <c r="F4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="9">
         <v>169.8</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="n">
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
         <v>59</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="8">
         <v>323784</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="9">
         <v>126</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2114,30 +2363,30 @@
       <c r="F5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="9">
         <v>235.1</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="n">
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
         <v>58</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="15">
         <v>323693</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="9">
         <v>15</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2146,30 +2395,30 @@
       <c r="F6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="9">
         <v>42.6</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10" t="n">
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
         <v>57</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="8">
         <v>323596</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="9">
         <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -2178,30 +2427,30 @@
       <c r="F7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="9">
         <v>59.7</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="n">
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
         <v>57</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C8" s="15">
         <v>24143</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="9">
         <v>6.6</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -2210,30 +2459,30 @@
       <c r="F8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="9" t="n">
-        <v>7.140427</v>
+      <c r="G8" s="9">
+        <v>7.1404269999999999</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="n">
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
         <v>62</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="8">
         <v>323822</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="9">
         <v>121.8</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -2242,30 +2491,30 @@
       <c r="F9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="9">
         <v>295.7</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="n">
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
         <v>64</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="8">
         <v>323617</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="9">
         <v>125</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -2274,30 +2523,30 @@
       <c r="F10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="9" t="n">
-        <v>266.1</v>
+      <c r="G10" s="9">
+        <v>266.10000000000002</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="n">
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
         <v>64</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="8">
         <v>323820</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="9">
         <v>101.2</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -2306,30 +2555,30 @@
       <c r="F11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="9">
         <v>232.4</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10" t="n">
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
         <v>64</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="8">
         <v>24204</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="9">
         <v>30</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -2338,30 +2587,30 @@
       <c r="F12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="9" t="n">
-        <v>70.4</v>
+      <c r="G12" s="9">
+        <v>70.400000000000006</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="n">
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
         <v>51</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="8">
         <v>323625</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="9">
         <v>112.5</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -2370,30 +2619,30 @@
       <c r="F13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="9">
         <v>177.5</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10" t="n">
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
         <v>65</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="8">
         <v>323690</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="9">
         <v>57.4</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -2402,30 +2651,30 @@
       <c r="F14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="9">
         <v>107.8</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10" t="n">
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
         <v>64</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="15" t="n">
+      <c r="C15" s="15">
         <v>323713</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="9">
         <v>16.2</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -2434,30 +2683,30 @@
       <c r="F15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="9">
         <v>38.4</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10" t="n">
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
         <v>64</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="8">
         <v>323706</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="9">
         <v>94.4</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -2466,30 +2715,30 @@
       <c r="F16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="9">
         <v>221.8</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10" t="n">
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
         <v>65</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="8">
         <v>323626</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="9">
         <v>126</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -2498,30 +2747,30 @@
       <c r="F17" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="9">
         <v>193.1</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10" t="n">
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
         <v>63</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="8">
         <v>323606</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="9">
         <v>97.5</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -2530,30 +2779,30 @@
       <c r="F18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="9">
         <v>124.6</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="10" t="n">
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="8">
         <v>323614</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="9">
         <v>106.5</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -2562,30 +2811,30 @@
       <c r="F19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="9">
         <v>144.6</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10" t="n">
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="8">
         <v>323605</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="9">
         <v>100.5</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -2594,30 +2843,30 @@
       <c r="F20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="9">
         <v>125.3</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="10" t="n">
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="8">
         <v>323604</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="9">
         <v>81</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -2626,30 +2875,30 @@
       <c r="F21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="9">
         <v>115.7</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10" t="n">
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="8">
         <v>323719</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="9">
         <v>77.7</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -2658,30 +2907,30 @@
       <c r="F22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="9">
         <v>184.8</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10" t="n">
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="8" t="n">
+      <c r="C23" s="8">
         <v>323696</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="9">
         <v>215.2</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -2690,30 +2939,30 @@
       <c r="F23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="G23" s="9">
         <v>386.7</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="I23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="10" t="n">
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="8">
         <v>323821</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="9">
         <v>124.2</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -2722,31 +2971,31 @@
       <c r="F24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="9" t="n">
-        <v>67.6</v>
+      <c r="G24" s="9">
+        <v>67.599999999999994</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="I24" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="10" t="n">
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
         <v>69</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="15" t="n">
+      <c r="C25" s="15">
         <v>323753</v>
       </c>
-      <c r="D25" s="9" t="n">
-        <v>79.9</v>
+      <c r="D25" s="9">
+        <v>79.900000000000006</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>60</v>
@@ -2754,30 +3003,30 @@
       <c r="F25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="G25" s="9">
         <v>221.8</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="10" t="n">
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
         <v>47</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="8" t="n">
+      <c r="C26" s="8">
         <v>323673</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="9">
         <v>74</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -2786,30 +3035,30 @@
       <c r="F26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="9" t="n">
-        <v>155.3</v>
+      <c r="G26" s="9">
+        <v>155.30000000000001</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="I26" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="10" t="n">
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
         <v>45</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="8" t="n">
+      <c r="C27" s="8">
         <v>24146</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D27" s="9">
         <v>11.5</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -2818,30 +3067,30 @@
       <c r="F27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="9" t="n">
+      <c r="G27" s="9">
         <v>12.4</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="I27" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="10" t="n">
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
         <v>43</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="8">
         <v>323574</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="9">
         <v>184.8</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -2850,31 +3099,31 @@
       <c r="F28" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="9" t="n">
+      <c r="G28" s="9">
         <v>397</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I28" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="10" t="n">
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
         <v>47</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="8">
         <v>323611</v>
       </c>
-      <c r="D29" s="9" t="n">
-        <v>136.95</v>
+      <c r="D29" s="9">
+        <v>136.94999999999999</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>60</v>
@@ -2882,30 +3131,30 @@
       <c r="F29" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G29" s="9">
         <v>155.9</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="I29" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="10" t="n">
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
         <v>47</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="8">
         <v>323609</v>
       </c>
-      <c r="D30" s="9" t="n">
+      <c r="D30" s="9">
         <v>34.5</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -2914,30 +3163,30 @@
       <c r="F30" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="9" t="n">
+      <c r="G30" s="9">
         <v>75.7</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I30" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="10" t="n">
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10">
         <v>43</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>117</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="17" t="n">
+      <c r="C31" s="17">
         <v>323818</v>
       </c>
-      <c r="D31" s="9" t="n">
+      <c r="D31" s="9">
         <v>105.8</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -2946,30 +3195,30 @@
       <c r="F31" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="9" t="n">
+      <c r="G31" s="9">
         <v>163.4</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I31" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="10" t="n">
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
         <v>47</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="8" t="n">
+      <c r="C32" s="8">
         <v>323790</v>
       </c>
-      <c r="D32" s="9" t="n">
+      <c r="D32" s="9">
         <v>79.7</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -2978,53 +3227,46 @@
       <c r="F32" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="9" t="n">
+      <c r="G32" s="9">
         <v>171.2</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="I32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="10" t="n">
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.55"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3056,17 +3298,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="8">
         <v>323809</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="9">
         <v>20</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -3075,30 +3317,30 @@
       <c r="F2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="9">
         <v>31.3</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10" t="n">
+        <v>174</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
         <v>68</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="8">
         <v>323808</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>20</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -3107,30 +3349,30 @@
       <c r="F3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="9">
         <v>28.9</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="n">
+        <v>175</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
         <v>68</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="8">
         <v>323811</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="9">
         <v>20</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -3139,30 +3381,30 @@
       <c r="F4" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="9">
         <v>33</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="n">
+        <v>178</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="8">
         <v>323810</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="9">
         <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -3171,30 +3413,30 @@
       <c r="F5" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="9">
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="n">
+        <v>177</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
         <v>41</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="8">
         <v>323812</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="9">
         <v>20</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -3203,30 +3445,30 @@
       <c r="F6" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="9">
         <v>9</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10" t="n">
+        <v>176</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
         <v>40</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="8">
         <v>323813</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="9">
         <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -3235,30 +3477,30 @@
       <c r="F7" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="9">
         <v>22.3</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="n">
+        <v>179</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
         <v>40</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="8">
         <v>323814</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="9">
         <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -3267,30 +3509,30 @@
       <c r="F8" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="9">
         <v>1.3</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="n">
+        <v>181</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
         <v>41</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="8">
         <v>323815</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="9">
         <v>20</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -3301,26 +3543,26 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="n">
+        <v>182</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
         <v>41</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="8">
         <v>323833</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="9">
         <v>20</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -3331,26 +3573,26 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="n">
+        <v>183</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="8">
         <v>323834</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="9">
         <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -3361,26 +3603,26 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10" t="n">
+        <v>184</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="8">
         <v>323691</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="9">
         <v>31.5</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -3389,30 +3631,30 @@
       <c r="F12" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="9">
         <v>45.6</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="n">
+        <v>173</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="8">
         <v>323806</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="9">
         <v>22.9</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -3421,53 +3663,45 @@
       <c r="F13" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="9">
         <v>43.5</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10" t="n">
+        <v>180</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C11">
-    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.45"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3499,17 +3733,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="8">
         <v>23760</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="9">
         <v>240</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -3518,30 +3752,30 @@
       <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="9">
         <v>-226.2</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10" t="n">
+      <c r="I2" s="10">
         <v>-280</v>
       </c>
-      <c r="J2" s="10" t="n">
+      <c r="J2" s="10">
         <v>56</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="8">
         <v>23756</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>290</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -3550,30 +3784,30 @@
       <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9" t="n">
-        <v>-73.4</v>
+      <c r="G3" s="9">
+        <v>-73.400000000000006</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="10" t="n">
+      <c r="I3" s="10">
         <v>-280</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="8">
         <v>23757</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="9">
         <v>290</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -3582,30 +3816,30 @@
       <c r="F4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="9" t="n">
-        <v>-16.1</v>
+      <c r="G4" s="9">
+        <v>-16.100000000000001</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="10" t="n">
+      <c r="I4" s="10">
         <v>-280</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="8">
         <v>23758</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="9">
         <v>290</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -3614,30 +3848,30 @@
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="9">
         <v>99.3</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="10">
         <v>-280</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="8">
         <v>23759</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="9">
         <v>290</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -3646,30 +3880,30 @@
       <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="9">
         <v>-135.6</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="10" t="n">
+      <c r="I6" s="10">
         <v>-230</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="8">
         <v>323794</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="9">
         <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -3678,30 +3912,30 @@
       <c r="F7" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="9">
         <v>-3.5</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="10" t="n">
+      <c r="I7" s="10">
         <v>-20</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="10">
         <v>55</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="8">
         <v>323823</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="9">
         <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -3710,30 +3944,30 @@
       <c r="F8" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="9">
         <v>-1.7</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="10" t="n">
+      <c r="I8" s="10">
         <v>-20</v>
       </c>
-      <c r="J8" s="10" t="n">
+      <c r="J8" s="10">
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="8">
         <v>323781</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="9">
         <v>2</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -3746,24 +3980,24 @@
       <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="10" t="n">
+      <c r="I9" s="10">
         <v>-2</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="10">
         <v>50</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="8">
         <v>323785</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="9">
         <v>20</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -3772,30 +4006,30 @@
       <c r="F10" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="9">
         <v>-1</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="10" t="n">
+      <c r="I10" s="10">
         <v>-20</v>
       </c>
-      <c r="J10" s="10" t="n">
+      <c r="J10" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="15">
         <v>323632</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="9">
         <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -3804,30 +4038,30 @@
       <c r="F11" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="9">
         <v>-6.9</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="10" t="n">
+      <c r="I11" s="10">
         <v>-20</v>
       </c>
-      <c r="J11" s="10" t="n">
+      <c r="J11" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="8">
         <v>323755</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="9">
         <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -3836,30 +4070,30 @@
       <c r="F12" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="9">
         <v>-2.8</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="10" t="n">
+      <c r="I12" s="10">
         <v>-20</v>
       </c>
-      <c r="J12" s="10" t="n">
+      <c r="J12" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="8">
         <v>323819</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="9">
         <v>3</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -3868,30 +4102,30 @@
       <c r="F13" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="9">
         <v>-0.1</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="10" t="n">
+      <c r="I13" s="10">
         <v>-3</v>
       </c>
-      <c r="J13" s="10" t="n">
+      <c r="J13" s="10">
         <v>77</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="15" t="n">
+      <c r="C14" s="15">
         <v>5066</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="9">
         <v>5</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -3904,24 +4138,24 @@
       <c r="H14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="10" t="n">
+      <c r="I14" s="10">
         <v>-5</v>
       </c>
-      <c r="J14" s="10" t="n">
+      <c r="J14" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="15" t="n">
+      <c r="C15" s="15">
         <v>5068</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="9">
         <v>5</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -3934,47 +4168,39 @@
       <c r="H15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="10" t="n">
+      <c r="I15" s="10">
         <v>-5</v>
       </c>
-      <c r="J15" s="10" t="n">
+      <c r="J15" s="10">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.44"/>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4006,7 +4232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
@@ -4014,7 +4240,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="10">
         <v>37.6</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -4027,14 +4253,14 @@
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10" t="n">
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
         <v>57</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>155</v>
       </c>
@@ -4042,7 +4268,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="10">
         <v>16</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -4055,14 +4281,14 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="n">
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
         <v>59</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>156</v>
       </c>
@@ -4070,7 +4296,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="10">
         <v>4.8</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -4083,14 +4309,14 @@
       <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="n">
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
         <v>62</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>157</v>
       </c>
@@ -4098,7 +4324,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>3.6</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -4111,14 +4337,14 @@
       <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="n">
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
         <v>50</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>158</v>
       </c>
@@ -4126,7 +4352,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="10">
         <v>39.5</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -4139,14 +4365,14 @@
       <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10" t="n">
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
         <v>51</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>159</v>
       </c>
@@ -4154,7 +4380,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>29.6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -4167,14 +4393,14 @@
       <c r="H7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="n">
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
         <v>65</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>160</v>
       </c>
@@ -4182,7 +4408,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="10">
         <v>4.5</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -4195,14 +4421,14 @@
       <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="n">
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
         <v>66</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>161</v>
       </c>
@@ -4210,7 +4436,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="10">
         <v>6.4</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -4223,14 +4449,14 @@
       <c r="H9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="n">
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>162</v>
       </c>
@@ -4238,7 +4464,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="10">
         <v>4.8</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -4251,14 +4477,14 @@
       <c r="H10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="n">
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
         <v>45</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>163</v>
       </c>
@@ -4266,7 +4492,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="10">
         <v>61.9</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4279,14 +4505,14 @@
       <c r="H11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10" t="n">
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
         <v>47</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>164</v>
       </c>
@@ -4294,7 +4520,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="10">
         <v>3.2</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -4307,14 +4533,14 @@
       <c r="H12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="n">
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
         <v>40</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>165</v>
       </c>
@@ -4322,7 +4548,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="10">
         <v>0.7</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -4335,14 +4561,14 @@
       <c r="H13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10" t="n">
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>166</v>
       </c>
@@ -4350,7 +4576,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="10">
         <v>14.4</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -4363,14 +4589,14 @@
       <c r="H14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10" t="n">
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>167</v>
       </c>
@@ -4378,7 +4604,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="10">
         <v>12</v>
       </c>
       <c r="E15" s="10" t="s">
@@ -4391,14 +4617,14 @@
       <c r="H15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10" t="n">
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
         <v>37</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>168</v>
       </c>
@@ -4406,8 +4632,8 @@
         <v>37</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="10" t="n">
-        <v>9.2</v>
+      <c r="D16" s="10">
+        <v>9.1999999999999993</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>154</v>
@@ -4419,14 +4645,14 @@
       <c r="H16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10" t="n">
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
         <v>73</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>169</v>
       </c>
@@ -4434,7 +4660,7 @@
         <v>170</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="10">
         <v>59.7</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -4447,14 +4673,14 @@
       <c r="H17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10" t="n">
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
         <v>74</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>171</v>
       </c>
@@ -4462,7 +4688,7 @@
         <v>133</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="10">
         <v>123.6</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -4475,14 +4701,14 @@
       <c r="H18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="10" t="n">
+      <c r="I18" s="10">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
         <v>79</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>172</v>
       </c>
@@ -4490,7 +4716,7 @@
         <v>133</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="10">
         <v>44</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -4503,20 +4729,15 @@
       <c r="H19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10" t="n">
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/thermal/2024_nyca_nonthermal.xlsx
+++ b/data/thermal/2024_nyca_nonthermal.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\OneMet\generator_matching\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835BD082-144F-48C5-BB91-05AF5FD64E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Nuclear" sheetId="1" r:id="rId1"/>
-    <sheet name="Hydro" sheetId="2" r:id="rId2"/>
-    <sheet name="Import" sheetId="3" r:id="rId3"/>
-    <sheet name="Wind" sheetId="4" r:id="rId4"/>
-    <sheet name="UPV" sheetId="5" r:id="rId5"/>
-    <sheet name="Storage" sheetId="6" r:id="rId6"/>
-    <sheet name="Others" sheetId="7" r:id="rId7"/>
+    <sheet name="Nuclear" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hydro" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Import" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Wind" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="UPV" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Storage" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Others" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,571 +26,570 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="185">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>PTID</t>
-  </si>
-  <si>
-    <t>Capacity (MW)</t>
-  </si>
-  <si>
-    <t>Unit Type</t>
-  </si>
-  <si>
-    <t>Fuel Type Primary</t>
-  </si>
-  <si>
-    <t>2023 Net Energy (GWh)</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>min_gen</t>
-  </si>
-  <si>
-    <t>gen_bus</t>
-  </si>
-  <si>
-    <t>R. E. Ginna</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>UR</t>
-  </si>
-  <si>
-    <t>NYISO</t>
-  </si>
-  <si>
-    <t>Nine Mile Point 1</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>Nine Mile Point 2</t>
-  </si>
-  <si>
-    <t>James A. FitzPatrick</t>
-  </si>
-  <si>
-    <t>Moses Niagara (Fleet)</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>HY</t>
-  </si>
-  <si>
-    <t>WAT</t>
-  </si>
-  <si>
-    <t>St Lawrence - FDR (Fleet)</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Hydro_B_1</t>
-  </si>
-  <si>
-    <t>NYGRID</t>
-  </si>
-  <si>
-    <t>Hydro_C_1</t>
-  </si>
-  <si>
-    <t>Hydro_C_2</t>
-  </si>
-  <si>
-    <t>Hydro_D_1</t>
-  </si>
-  <si>
-    <t>Hydro_E_1</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Hydro_E_2</t>
-  </si>
-  <si>
-    <t>Hydro_F_1</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Hydro_G_1</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Import_NE_CSC</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>Import_NE_NNC</t>
-  </si>
-  <si>
-    <t>Import_NE_ZF</t>
-  </si>
-  <si>
-    <t>Import_NE_ZG</t>
-  </si>
-  <si>
-    <t>Import_IESO_ZD</t>
-  </si>
-  <si>
-    <t>IESO</t>
-  </si>
-  <si>
-    <t>Import_IESO_ZA1</t>
-  </si>
-  <si>
-    <t>Import_IESO_ZA2</t>
-  </si>
-  <si>
-    <t>Import_PJM_ZA</t>
-  </si>
-  <si>
-    <t>PJM</t>
-  </si>
-  <si>
-    <t>Import_PJM_ZC</t>
-  </si>
-  <si>
-    <t>Import_PJM_ZG</t>
-  </si>
-  <si>
-    <t>Import_PJM_NEPTUNE</t>
-  </si>
-  <si>
-    <t>Import_PJM_HTP</t>
-  </si>
-  <si>
-    <t>Import_PJM_VFT</t>
-  </si>
-  <si>
-    <t>Import_HQ_CEDARS</t>
-  </si>
-  <si>
-    <t>Import_HQ_NY</t>
-  </si>
-  <si>
-    <t>Import_HQ_CHPE</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>Arkwright Summit Wind Farm</t>
-  </si>
-  <si>
-    <t>WT</t>
-  </si>
-  <si>
-    <t>WND</t>
-  </si>
-  <si>
-    <t>Arkwright Summit</t>
-  </si>
-  <si>
-    <t>Ball Hill Wind</t>
-  </si>
-  <si>
-    <t>Bliss Wind Power</t>
-  </si>
-  <si>
-    <t>Noble Bliss</t>
-  </si>
-  <si>
-    <t>Cassadaga Wind</t>
-  </si>
-  <si>
-    <t>Cassadaga</t>
-  </si>
-  <si>
-    <t>Erie Wind</t>
-  </si>
-  <si>
-    <t>Steel Winds II</t>
-  </si>
-  <si>
-    <t>Steel Wind</t>
-  </si>
-  <si>
-    <t>Steel Winds</t>
-  </si>
-  <si>
-    <t>Western NY Wind Power</t>
-  </si>
-  <si>
-    <t>Wethersfield</t>
-  </si>
-  <si>
-    <t>Baron Winds</t>
-  </si>
-  <si>
-    <t>Baron Winds I</t>
-  </si>
-  <si>
-    <t>Canandaigua Wind Power</t>
-  </si>
-  <si>
-    <t>Dutch Hill/Cohocton</t>
-  </si>
-  <si>
-    <t>Eight Point Wind</t>
-  </si>
-  <si>
-    <t>Fenner Wind Power</t>
-  </si>
-  <si>
-    <t>Fenner Wind Power Project</t>
-  </si>
-  <si>
-    <t>High Sheldon Wind Farm</t>
-  </si>
-  <si>
-    <t>High Sheldon</t>
-  </si>
-  <si>
-    <t>Howard Wind</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
-    <t>Marsh Hill Wind Farm</t>
-  </si>
-  <si>
-    <t>Marsh Hill</t>
-  </si>
-  <si>
-    <t>Orangeville Wind Farm</t>
-  </si>
-  <si>
-    <t>Orangeville Wind</t>
-  </si>
-  <si>
-    <t>Wethersfield Wind Power</t>
-  </si>
-  <si>
-    <t>Noble Wethersfield</t>
-  </si>
-  <si>
-    <t>Altona Wind Power</t>
-  </si>
-  <si>
-    <t>Noble Altona</t>
-  </si>
-  <si>
-    <t>Chateaugay Wind Power</t>
-  </si>
-  <si>
-    <t>Noble Chateaugay</t>
-  </si>
-  <si>
-    <t>Clinton Wind Power</t>
-  </si>
-  <si>
-    <t>Noble Clinton</t>
-  </si>
-  <si>
-    <t>Ellenburg Wind Power</t>
-  </si>
-  <si>
-    <t>Noble Ellenburg</t>
-  </si>
-  <si>
-    <t>Jericho Rise Wind Farm</t>
-  </si>
-  <si>
-    <t>Jericho Rise</t>
-  </si>
-  <si>
-    <t>Marble River Wind</t>
-  </si>
-  <si>
-    <t>Marble River</t>
-  </si>
-  <si>
-    <t>BlueStone Wind</t>
-  </si>
-  <si>
-    <t>Bluestone Wind</t>
-  </si>
-  <si>
-    <t>Copenhagen Wind Farm</t>
-  </si>
-  <si>
-    <t>Copenhagen</t>
-  </si>
-  <si>
-    <t>Hardscrabble Wind</t>
-  </si>
-  <si>
-    <t>Hardscrabble</t>
-  </si>
-  <si>
-    <t>Madison Wind Power</t>
-  </si>
-  <si>
-    <t>Madison Windpower</t>
-  </si>
-  <si>
-    <t>Maple Ridge Wind 1</t>
-  </si>
-  <si>
-    <t>Maple Ridge</t>
-  </si>
-  <si>
-    <t>Maple Ridge Wind 2</t>
-  </si>
-  <si>
-    <t>Maple Ridge (Lowville)</t>
-  </si>
-  <si>
-    <t>Munnsville Wind Power</t>
-  </si>
-  <si>
-    <t>Munnsville</t>
-  </si>
-  <si>
-    <t>Number Three Wind Power</t>
-  </si>
-  <si>
-    <t>Number Three Wind Farm</t>
-  </si>
-  <si>
-    <t>Roaring Brook Wind</t>
-  </si>
-  <si>
-    <t>Puckett Solar</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>SUN</t>
-  </si>
-  <si>
-    <t>Janis Solar</t>
-  </si>
-  <si>
-    <t>Branscomb Solar</t>
-  </si>
-  <si>
-    <t>Darby Solar</t>
-  </si>
-  <si>
-    <t>Regan Solar</t>
-  </si>
-  <si>
-    <t>Grissom Solar</t>
-  </si>
-  <si>
-    <t>Stillwater Solar</t>
-  </si>
-  <si>
-    <t>Pattersonville Solar</t>
-  </si>
-  <si>
-    <t>Albany County Solar 1</t>
-  </si>
-  <si>
-    <t>Albany County Solar 2</t>
-  </si>
-  <si>
-    <t>Long Island Solar Farm</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Calverton Solar</t>
-  </si>
-  <si>
-    <t>Lewiston PS</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>Gilboa 1</t>
-  </si>
-  <si>
-    <t>Gilboa 2</t>
-  </si>
-  <si>
-    <t>Gilboa 3</t>
-  </si>
-  <si>
-    <t>Gilboa 4</t>
-  </si>
-  <si>
-    <t>Orangeville ESR</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>BAT</t>
-  </si>
-  <si>
-    <t>KCE NY 6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="183">
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacity (MW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel Type Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 Net Energy (GWh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_gen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gen_bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. E. Ginna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nine Mile Point 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nine Mile Point 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James A. FitzPatrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moses Niagara (Fleet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Lawrence - FDR (Fleet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro_B_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYGRID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro_C_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro_C_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro_D_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro_E_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro_E_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro_F_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro_G_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import_NE_CSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import_NE_NNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import_NE_ZF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import_NE_ZG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import_IESO_ZD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IESO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import_IESO_ZA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import_IESO_ZA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import_PJM_ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import_PJM_ZC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import_PJM_ZG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import_PJM_NEPTUNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import_PJM_HTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import_PJM_VFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import_HQ_CEDARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import_HQ_NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkwright Summit Wind Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkwright Summit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ball Hill Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bliss Wind Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noble Bliss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cassadaga Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cassadaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erie Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel Winds II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel Winds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western NY Wind Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wethersfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baron Winds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baron Winds I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canandaigua Wind Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch Hill/Cohocton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Point Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenner Wind Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenner Wind Power Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Sheldon Wind Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Sheldon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howard Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marsh Hill Wind Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marsh Hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orangeville Wind Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orangeville Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wethersfield Wind Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noble Wethersfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altona Wind Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noble Altona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chateaugay Wind Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noble Chateaugay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinton Wind Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noble Clinton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellenburg Wind Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noble Ellenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jericho Rise Wind Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jericho Rise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marble River Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marble River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlueStone Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bluestone Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copenhagen Wind Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copenhagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardscrabble Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardscrabble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madison Wind Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madison Windpower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maple Ridge Wind 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maple Ridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maple Ridge Wind 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maple Ridge (Lowville)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munnsville Wind Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munnsville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number Three Wind Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number Three Wind Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roaring Brook Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puckett Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NY8 - Puckett Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janis Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NY8 - Janis Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branscomb Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NY8-Branscomb Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darby Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NY8 - Darby Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regan Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NY8 - Regan Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grissom Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NY8 - Grissom Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stillwater Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POINT (-73.6960985 42.9093027)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattersonville Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POINT (-74.117419 42.857609)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albany County Solar 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POINT (-73.8017085 42.4659365)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albany County Solar 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POINT (-73.7966561 42.4777168)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long Island Solar Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long Island Solar Farm, LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calverton Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverhead Solar Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewiston PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilboa 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilboa 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilboa 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilboa 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orangeville ESR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCE NY 6</t>
   </si>
   <si>
     <t xml:space="preserve">East Pulaski ESR </t>
   </si>
   <si>
-    <t>North Country ESR</t>
-  </si>
-  <si>
-    <t>Beacon LESR</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>KCE NY 1</t>
-  </si>
-  <si>
-    <t>Pomona ESR</t>
-  </si>
-  <si>
-    <t>East Hampton Battery Storage</t>
-  </si>
-  <si>
-    <t>Montauk Battery Storage</t>
-  </si>
-  <si>
-    <t>Other_A_1</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Other_A_2</t>
-  </si>
-  <si>
-    <t>Other_B_1</t>
-  </si>
-  <si>
-    <t>Other_C_1</t>
-  </si>
-  <si>
-    <t>Other_C_2</t>
-  </si>
-  <si>
-    <t>Other_C_3</t>
-  </si>
-  <si>
-    <t>Other_C_4</t>
-  </si>
-  <si>
-    <t>Other_D_1</t>
-  </si>
-  <si>
-    <t>Other_E_1</t>
-  </si>
-  <si>
-    <t>Other_E_2</t>
-  </si>
-  <si>
-    <t>Other_F_1</t>
-  </si>
-  <si>
-    <t>Other_F_2</t>
-  </si>
-  <si>
-    <t>Other_F_3</t>
-  </si>
-  <si>
-    <t>Other_F_4</t>
-  </si>
-  <si>
-    <t>Other_G_1</t>
-  </si>
-  <si>
-    <t>Other_H_1</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Other_K_1</t>
-  </si>
-  <si>
-    <t>Other_K_2</t>
-  </si>
-  <si>
-    <t>Long Island Solar Farm, LLC</t>
-  </si>
-  <si>
-    <t>NY8 - Puckett Solar</t>
-  </si>
-  <si>
-    <t>NY8 - Janis Solar</t>
-  </si>
-  <si>
-    <t>NY8 - Regan Solar</t>
-  </si>
-  <si>
-    <t>NY8 - Darby Solar</t>
-  </si>
-  <si>
-    <t>NY8-Branscomb Solar</t>
-  </si>
-  <si>
-    <t>NY8 - Grissom Solar</t>
-  </si>
-  <si>
-    <t>Riverhead Solar Farm</t>
-  </si>
-  <si>
-    <t>POINT (-73.6960985 42.9093027)</t>
-  </si>
-  <si>
-    <t>POINT (-74.117419 42.857609)</t>
-  </si>
-  <si>
-    <t>POINT (-73.8017085 42.4659365)</t>
-  </si>
-  <si>
-    <t>POINT (-73.7966561 42.4777168)</t>
+    <t xml:space="preserve">North Country ESR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beacon LESR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCE NY 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pomona ESR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Hampton Battery Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montauk Battery Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_A_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_A_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_B_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_C_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_C_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_C_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_C_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_D_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_E_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_E_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_F_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_F_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_F_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_F_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_G_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_H_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_K_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_K_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="mmm\-yy"/>
+    <numFmt numFmtId="167" formatCode="#,##0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -604,13 +598,28 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11.5"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
@@ -638,95 +647,137 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="22">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="20"/>
+    <cellStyle name="Normal 3" xfId="21"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -790,7 +841,6 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -849,356 +899,28 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="156082"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E97132"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="196B24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,17 +952,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="8" t="n">
         <v>23603</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="9" t="n">
         <v>582</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -1249,30 +971,30 @@
       <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9">
-        <v>4644.8999999999996</v>
+      <c r="G2" s="9" t="n">
+        <v>4644.9</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="9" t="n">
         <v>436.5</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="10" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="8" t="n">
         <v>23575</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="9" t="n">
         <v>630.5</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1281,30 +1003,30 @@
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9">
-        <v>4666.6000000000004</v>
+      <c r="G3" s="9" t="n">
+        <v>4666.6</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="9" t="n">
         <v>472.875</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="10" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="8" t="n">
         <v>23744</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="9" t="n">
         <v>1310</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1313,30 +1035,30 @@
       <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="9" t="n">
         <v>10837.1</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="9" t="n">
         <v>934.95</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="10" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="8" t="n">
         <v>23598</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="9" t="n">
         <v>858.9</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1345,39 +1067,47 @@
       <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="9" t="n">
         <v>7373.1</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="9">
-        <v>644.17499999999995</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="9" t="n">
+        <v>644.175</v>
+      </c>
+      <c r="J5" s="10" t="n">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,17 +1139,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="8" t="n">
         <v>23760</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="9" t="n">
         <v>2460</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -1428,30 +1158,30 @@
       <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="9" t="n">
         <v>15767.3</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="9">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
+      <c r="I2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="8" t="n">
         <v>23600</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="9" t="n">
         <v>856</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1460,20 +1190,20 @@
       <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="9" t="n">
         <v>7138.6</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -1481,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="10">
+      <c r="D4" s="10" t="n">
         <v>63.8</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1494,14 +1224,14 @@
       <c r="H4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="I4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
@@ -1509,8 +1239,8 @@
         <v>16</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="10">
-        <v>71.400000000000006</v>
+      <c r="D5" s="10" t="n">
+        <v>71.4</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>22</v>
@@ -1522,14 +1252,14 @@
       <c r="H5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
@@ -1537,7 +1267,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="10">
+      <c r="D6" s="10" t="n">
         <v>38</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1550,14 +1280,14 @@
       <c r="H6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="I6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
@@ -1565,7 +1295,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="10">
+      <c r="D7" s="10" t="n">
         <v>58.8</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1578,14 +1308,14 @@
       <c r="H7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -1593,7 +1323,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="10">
+      <c r="D8" s="10" t="n">
         <v>28.6</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1606,14 +1336,14 @@
       <c r="H8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
         <v>33</v>
       </c>
@@ -1621,7 +1351,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10">
+      <c r="D9" s="10" t="n">
         <v>347.7</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1634,14 +1364,14 @@
       <c r="H9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
@@ -1649,8 +1379,8 @@
         <v>35</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="10">
-        <v>269.60000000000002</v>
+      <c r="D10" s="10" t="n">
+        <v>269.6</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>22</v>
@@ -1662,14 +1392,14 @@
       <c r="H10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -1677,7 +1407,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10">
+      <c r="D11" s="10" t="n">
         <v>75.8</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -1690,33 +1420,41 @@
       <c r="H11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="n">
         <v>77</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
@@ -1756,7 +1494,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="10">
+      <c r="D2" s="10" t="n">
         <v>330</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -1769,14 +1507,14 @@
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
+      <c r="I2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
         <v>41</v>
       </c>
@@ -1784,7 +1522,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="10">
+      <c r="D3" s="10" t="n">
         <v>200</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -1797,14 +1535,14 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="10" t="n">
         <v>-200</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="10" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
@@ -1812,7 +1550,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="10">
+      <c r="D4" s="10" t="n">
         <v>800</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -1825,14 +1563,14 @@
       <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="10" t="n">
         <v>-800</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="10" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
         <v>43</v>
       </c>
@@ -1840,7 +1578,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="10">
+      <c r="D5" s="10" t="n">
         <v>600</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -1853,14 +1591,14 @@
       <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="10" t="n">
         <v>-800</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="10" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
         <v>44</v>
       </c>
@@ -1868,7 +1606,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="10">
+      <c r="D6" s="10" t="n">
         <v>300</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -1881,14 +1619,14 @@
       <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="10" t="n">
         <v>-300</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="10" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1896,7 +1634,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="10">
+      <c r="D7" s="10" t="n">
         <v>825</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -1909,14 +1647,14 @@
       <c r="H7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="10" t="n">
         <v>-725</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="10" t="n">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
         <v>47</v>
       </c>
@@ -1924,7 +1662,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="10">
+      <c r="D8" s="10" t="n">
         <v>825</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -1937,14 +1675,14 @@
       <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="10" t="n">
         <v>-725</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="10" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
         <v>48</v>
       </c>
@@ -1952,7 +1690,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10">
+      <c r="D9" s="10" t="n">
         <v>550</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -1965,14 +1703,14 @@
       <c r="H9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="10" t="n">
         <v>-550</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="10" t="n">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
         <v>50</v>
       </c>
@@ -1980,7 +1718,7 @@
         <v>49</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="10">
+      <c r="D10" s="10" t="n">
         <v>900</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -1993,14 +1731,14 @@
       <c r="H10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="10" t="n">
         <v>-500</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="10" t="n">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
         <v>51</v>
       </c>
@@ -2008,7 +1746,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10">
+      <c r="D11" s="10" t="n">
         <v>1045</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -2021,14 +1759,14 @@
       <c r="H11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="10" t="n">
         <v>-1000</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="10" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
         <v>52</v>
       </c>
@@ -2036,7 +1774,7 @@
         <v>49</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="10">
+      <c r="D12" s="10" t="n">
         <v>660</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -2049,14 +1787,14 @@
       <c r="H12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10">
+      <c r="I12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
         <v>53</v>
       </c>
@@ -2064,7 +1802,7 @@
         <v>49</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="10">
+      <c r="D13" s="10" t="n">
         <v>660</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -2077,14 +1815,14 @@
       <c r="H13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="10">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="I13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
         <v>54</v>
       </c>
@@ -2092,7 +1830,7 @@
         <v>49</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="10">
+      <c r="D14" s="10" t="n">
         <v>315</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -2105,14 +1843,14 @@
       <c r="H14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="10" t="n">
         <v>-315</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="10" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
         <v>55</v>
       </c>
@@ -2120,7 +1858,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="10">
+      <c r="D15" s="10" t="n">
         <v>199</v>
       </c>
       <c r="E15" s="10" t="s">
@@ -2133,14 +1871,14 @@
       <c r="H15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="10">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="I15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
         <v>56</v>
       </c>
@@ -2148,7 +1886,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="10">
+      <c r="D16" s="10" t="n">
         <v>1500</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -2161,62 +1899,43 @@
       <c r="H16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="10">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="I16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10">
-        <v>1250</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10">
-        <v>48</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="8" max="8" width="26.77734375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2248,1025 +1967,1033 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="8" t="n">
         <v>323751</v>
       </c>
-      <c r="D2" s="9">
-        <v>78.400000000000006</v>
+      <c r="D2" s="9" t="n">
+        <v>78.4</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="I2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G2" s="9">
-        <v>224.7</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="8" t="n">
         <v>323825</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="9" t="n">
         <v>100</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="9">
-        <v>55.4</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="8" t="n">
         <v>323608</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="9" t="n">
         <v>100.5</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="9">
+        <v>59</v>
+      </c>
+      <c r="G4" s="9" t="n">
         <v>169.8</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
+        <v>63</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="8" t="n">
         <v>323784</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="9" t="n">
         <v>126</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="9">
+        <v>59</v>
+      </c>
+      <c r="G5" s="9" t="n">
         <v>235.1</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
+        <v>65</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="15" t="n">
         <v>323693</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="9" t="n">
         <v>15</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="9">
+        <v>59</v>
+      </c>
+      <c r="G6" s="9" t="n">
         <v>42.6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
+        <v>67</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="8" t="n">
         <v>323596</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="9">
+        <v>59</v>
+      </c>
+      <c r="G7" s="9" t="n">
         <v>59.7</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
+        <v>69</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="15" t="n">
         <v>24143</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="9" t="n">
         <v>6.6</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="9">
-        <v>7.1404269999999999</v>
+        <v>59</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>7.140427</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
+        <v>71</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="8" t="n">
         <v>323822</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="9" t="n">
         <v>121.8</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="9">
+        <v>59</v>
+      </c>
+      <c r="G9" s="9" t="n">
         <v>295.7</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
+        <v>73</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="8" t="n">
         <v>323617</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="9" t="n">
         <v>125</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="9">
-        <v>266.10000000000002</v>
+        <v>59</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>266.1</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
+        <v>75</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="8" t="n">
         <v>323820</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="9" t="n">
         <v>101.2</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="9">
+        <v>59</v>
+      </c>
+      <c r="G11" s="9" t="n">
         <v>232.4</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
+        <v>76</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="8" t="n">
         <v>24204</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="9" t="n">
         <v>30</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="9">
-        <v>70.400000000000006</v>
+        <v>59</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>70.4</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10">
+        <v>78</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="8" t="n">
         <v>323625</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="9" t="n">
         <v>112.5</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="9">
+        <v>59</v>
+      </c>
+      <c r="G13" s="9" t="n">
         <v>177.5</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10">
+        <v>80</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="8" t="n">
         <v>323690</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="9" t="n">
         <v>57.4</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="9">
+        <v>59</v>
+      </c>
+      <c r="G14" s="9" t="n">
         <v>107.8</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
+        <v>82</v>
+      </c>
+      <c r="I14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="15" t="n">
         <v>323713</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="9" t="n">
         <v>16.2</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="9">
+        <v>59</v>
+      </c>
+      <c r="G15" s="9" t="n">
         <v>38.4</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10">
+        <v>84</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="8" t="n">
         <v>323706</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="9" t="n">
         <v>94.4</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="9">
+        <v>59</v>
+      </c>
+      <c r="G16" s="9" t="n">
         <v>221.8</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10">
+        <v>86</v>
+      </c>
+      <c r="I16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="8" t="n">
         <v>323626</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="9" t="n">
         <v>126</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="9">
+        <v>59</v>
+      </c>
+      <c r="G17" s="9" t="n">
         <v>193.1</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10">
+        <v>88</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="8" t="n">
         <v>323606</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="9" t="n">
         <v>97.5</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="9">
+        <v>59</v>
+      </c>
+      <c r="G18" s="9" t="n">
         <v>124.6</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="10">
+        <v>90</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="8" t="n">
         <v>323614</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="9" t="n">
         <v>106.5</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="9">
+        <v>59</v>
+      </c>
+      <c r="G19" s="9" t="n">
         <v>144.6</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10">
+        <v>92</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="8" t="n">
         <v>323605</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="9" t="n">
         <v>100.5</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="9">
+        <v>59</v>
+      </c>
+      <c r="G20" s="9" t="n">
         <v>125.3</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="10">
+        <v>94</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="8" t="n">
         <v>323604</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="9" t="n">
         <v>81</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="9">
+        <v>59</v>
+      </c>
+      <c r="G21" s="9" t="n">
         <v>115.7</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10">
+        <v>96</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="8" t="n">
         <v>323719</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="9" t="n">
         <v>77.7</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="9">
+        <v>59</v>
+      </c>
+      <c r="G22" s="9" t="n">
         <v>184.8</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10">
+        <v>98</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="8" t="n">
         <v>323696</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="9" t="n">
         <v>215.2</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="9">
+        <v>59</v>
+      </c>
+      <c r="G23" s="9" t="n">
         <v>386.7</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="10">
+        <v>100</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="8" t="n">
         <v>323821</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="9" t="n">
         <v>124.2</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="9">
-        <v>67.599999999999994</v>
+        <v>59</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>67.6</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="10">
+        <v>102</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="15" t="n">
         <v>323753</v>
       </c>
-      <c r="D25" s="9">
-        <v>79.900000000000006</v>
+      <c r="D25" s="9" t="n">
+        <v>79.9</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="9">
+        <v>59</v>
+      </c>
+      <c r="G25" s="9" t="n">
         <v>221.8</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="10">
+        <v>104</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="8" t="n">
         <v>323673</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="9" t="n">
         <v>74</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="9">
-        <v>155.30000000000001</v>
+        <v>59</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>155.3</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
+        <v>106</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="8" t="n">
         <v>24146</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="9" t="n">
         <v>11.5</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="9">
+        <v>59</v>
+      </c>
+      <c r="G27" s="9" t="n">
         <v>12.4</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0</v>
-      </c>
-      <c r="J27" s="10">
+        <v>108</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="8" t="n">
         <v>323574</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="9" t="n">
         <v>184.8</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="9">
+        <v>59</v>
+      </c>
+      <c r="G28" s="9" t="n">
         <v>397</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0</v>
-      </c>
-      <c r="J28" s="10">
+        <v>110</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="8" t="n">
         <v>323611</v>
       </c>
-      <c r="D29" s="9">
-        <v>136.94999999999999</v>
+      <c r="D29" s="9" t="n">
+        <v>136.95</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="9">
+        <v>59</v>
+      </c>
+      <c r="G29" s="9" t="n">
         <v>155.9</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-      <c r="J29" s="10">
+        <v>112</v>
+      </c>
+      <c r="I29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="8" t="n">
         <v>323609</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="9" t="n">
         <v>34.5</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="9">
+        <v>59</v>
+      </c>
+      <c r="G30" s="9" t="n">
         <v>75.7</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" s="9">
-        <v>0</v>
-      </c>
-      <c r="J30" s="10">
+        <v>114</v>
+      </c>
+      <c r="I30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="17" t="n">
         <v>323818</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="9" t="n">
         <v>105.8</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="9">
+        <v>59</v>
+      </c>
+      <c r="G31" s="9" t="n">
         <v>163.4</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I31" s="9">
-        <v>0</v>
-      </c>
-      <c r="J31" s="10">
+        <v>116</v>
+      </c>
+      <c r="I31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="8" t="n">
         <v>323790</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="9" t="n">
         <v>79.7</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="9">
+        <v>59</v>
+      </c>
+      <c r="G32" s="9" t="n">
         <v>171.2</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="I32" s="9">
-        <v>0</v>
-      </c>
-      <c r="J32" s="10">
+        <v>117</v>
+      </c>
+      <c r="I32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10" t="n">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3298,410 +3025,418 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="8" t="n">
         <v>323809</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="I2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G2" s="9">
-        <v>31.3</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="8" t="n">
         <v>323808</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="9">
+        <v>120</v>
+      </c>
+      <c r="G3" s="9" t="n">
         <v>28.9</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
+        <v>123</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="8" t="n">
         <v>323811</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="9">
+        <v>120</v>
+      </c>
+      <c r="G4" s="9" t="n">
         <v>33</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
+        <v>125</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="8" t="n">
         <v>323810</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="9">
+        <v>120</v>
+      </c>
+      <c r="G5" s="9" t="n">
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
+        <v>127</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="8" t="n">
         <v>323812</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="9">
+        <v>120</v>
+      </c>
+      <c r="G6" s="9" t="n">
         <v>9</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
+        <v>129</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="8" t="n">
         <v>323813</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="9">
+        <v>120</v>
+      </c>
+      <c r="G7" s="9" t="n">
         <v>22.3</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
+        <v>131</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="8" t="n">
         <v>323814</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="9">
+        <v>120</v>
+      </c>
+      <c r="G8" s="9" t="n">
         <v>1.3</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
+        <v>133</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="8" t="n">
         <v>323815</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
+        <v>135</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="8" t="n">
         <v>323833</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
+        <v>137</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="8" t="n">
         <v>323834</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
+        <v>139</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="8">
+        <v>141</v>
+      </c>
+      <c r="C12" s="8" t="n">
         <v>323691</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="9" t="n">
         <v>31.5</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="9">
+        <v>120</v>
+      </c>
+      <c r="G12" s="9" t="n">
         <v>45.6</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10">
+        <v>142</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="8">
+        <v>141</v>
+      </c>
+      <c r="C13" s="8" t="n">
         <v>323806</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="9" t="n">
         <v>22.9</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="9">
+        <v>120</v>
+      </c>
+      <c r="G13" s="9" t="n">
         <v>43.5</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10">
+        <v>144</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="n">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C11">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3"/>
   </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3733,474 +3468,482 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="8" t="n">
         <v>23760</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="9" t="n">
         <v>240</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="9" t="n">
         <v>-226.2</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="10" t="n">
         <v>-280</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="10" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="8" t="n">
         <v>23756</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="9" t="n">
         <v>290</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9">
-        <v>-73.400000000000006</v>
+      <c r="G3" s="9" t="n">
+        <v>-73.4</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="10" t="n">
         <v>-280</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="10" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="8" t="n">
         <v>23757</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="9" t="n">
         <v>290</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="9">
-        <v>-16.100000000000001</v>
+      <c r="G4" s="9" t="n">
+        <v>-16.1</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="10" t="n">
         <v>-280</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="10" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="8" t="n">
         <v>23758</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="9" t="n">
         <v>290</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="9" t="n">
         <v>99.3</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="10" t="n">
         <v>-280</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="10" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="8" t="n">
         <v>23759</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="9" t="n">
         <v>290</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="9" t="n">
         <v>-135.6</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="10" t="n">
         <v>-230</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="10" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="8" t="n">
         <v>323794</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="9">
+        <v>153</v>
+      </c>
+      <c r="G7" s="9" t="n">
         <v>-3.5</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="10" t="n">
         <v>-20</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="10" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="8" t="n">
         <v>323823</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="9">
+        <v>153</v>
+      </c>
+      <c r="G8" s="9" t="n">
         <v>-1.7</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="10" t="n">
         <v>-20</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="10" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="8" t="n">
         <v>323781</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="9" t="n">
         <v>2</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="10" t="n">
         <v>-2</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="10" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="8" t="n">
         <v>323785</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="9">
+        <v>153</v>
+      </c>
+      <c r="G10" s="9" t="n">
         <v>-1</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="10" t="n">
         <v>-20</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="10" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="15" t="n">
         <v>323632</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="9">
+        <v>158</v>
+      </c>
+      <c r="G11" s="9" t="n">
         <v>-6.9</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="10" t="n">
         <v>-20</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="10" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="8" t="n">
         <v>323755</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" s="9">
+        <v>153</v>
+      </c>
+      <c r="G12" s="9" t="n">
         <v>-2.8</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="10" t="n">
         <v>-20</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="10" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="8" t="n">
         <v>323819</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="9" t="n">
         <v>3</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="9">
+        <v>153</v>
+      </c>
+      <c r="G13" s="9" t="n">
         <v>-0.1</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="10" t="n">
         <v>-3</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="10" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="15">
+        <v>141</v>
+      </c>
+      <c r="C14" s="15" t="n">
         <v>5066</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="9" t="n">
         <v>5</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="10" t="n">
         <v>-5</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="10" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="15" t="n">
+        <v>5068</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="15">
-        <v>5068</v>
-      </c>
-      <c r="D15" s="9">
-        <v>5</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="F15" s="8" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="10" t="n">
         <v>-5</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="10" t="n">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5"/>
   </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4232,512 +3975,517 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="10">
+      <c r="D2" s="10" t="n">
         <v>37.6</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
+      <c r="I2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="10">
+      <c r="D3" s="10" t="n">
         <v>16</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
+      <c r="I3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="10">
+      <c r="D4" s="10" t="n">
         <v>4.8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="I4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="10">
+      <c r="D5" s="10" t="n">
         <v>3.6</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="10">
+      <c r="D6" s="10" t="n">
         <v>39.5</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="I6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="10">
+      <c r="D7" s="10" t="n">
         <v>29.6</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="10">
+      <c r="D8" s="10" t="n">
         <v>4.5</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="I8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10">
+      <c r="D9" s="10" t="n">
         <v>6.4</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="I9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="10">
+      <c r="D10" s="10" t="n">
         <v>4.8</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
+      <c r="I10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10">
+      <c r="D11" s="10" t="n">
         <v>61.9</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="I11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="10">
+      <c r="D12" s="10" t="n">
         <v>3.2</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10">
+      <c r="I12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="10">
+      <c r="D13" s="10" t="n">
         <v>0.7</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="10">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="I13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="10">
+      <c r="D14" s="10" t="n">
         <v>14.4</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
+      <c r="I14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="10">
+      <c r="D15" s="10" t="n">
         <v>12</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="10">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="I15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="10">
-        <v>9.1999999999999993</v>
+      <c r="D16" s="10" t="n">
+        <v>9.2</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="10">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="I16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="10">
+      <c r="D17" s="10" t="n">
         <v>59.7</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="10">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="I17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="10">
+      <c r="D18" s="10" t="n">
         <v>123.6</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="10">
-        <v>0</v>
-      </c>
-      <c r="J18" s="10">
+      <c r="I18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="10">
+      <c r="D19" s="10" t="n">
         <v>44</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="10">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10">
+      <c r="I19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="n">
         <v>80</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>